--- a/RES/Fuzzy matching/Combined rapidfuzz/Working files/new_rank2.xlsx
+++ b/RES/Fuzzy matching/Combined rapidfuzz/Working files/new_rank2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Refs + affiliations/Affiliations/RES/Fuzzy matching/Combined rapidfuzz/Working files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44B308F-E858-2B4C-B299-AED01C84396B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C9DBF6-C54E-554E-A538-DFF6A804079E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6918,7 +6918,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
